--- a/dal, subji, kadhi/Sambhar/Instant Sambhar from Gauranga Prabhu.xlsx
+++ b/dal, subji, kadhi/Sambhar/Instant Sambhar from Gauranga Prabhu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/TranscendCard/sourcetree/nandini_recipies/dal, subji, kadhi/Sambhar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\dal, subji, kadhi\Sambhar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56100187-5539-5B4C-A51A-1C3B1247693C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52733180-690D-48BB-9A4B-2A52C6921AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="-21140" windowWidth="38400" windowHeight="20000" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
+    <workbookView xWindow="5460" yWindow="3390" windowWidth="15375" windowHeight="7875" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,22 +587,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E1998A-25FC-42BE-BFFC-DAF05717235E}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
@@ -639,19 +639,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B22" si="0">(E3/F3)*D3</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="10">
         <v>0.5</v>
@@ -660,19 +660,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="10">
         <v>9</v>
@@ -684,19 +684,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="10">
         <v>20</v>
@@ -708,19 +708,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="10">
         <v>3</v>
@@ -729,19 +729,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="10">
         <v>0.5</v>
@@ -753,19 +753,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="10">
         <v>0.25</v>
@@ -777,33 +777,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
       <c r="D9" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="10">
         <v>2</v>
@@ -815,19 +815,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="10">
         <v>1</v>
@@ -836,19 +836,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="10">
         <v>0.75</v>
@@ -878,19 +878,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="10">
         <v>0.75</v>
@@ -899,19 +899,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="10">
         <v>0.5</v>
@@ -920,19 +920,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="10">
         <v>4</v>
@@ -941,19 +941,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="10">
         <v>0.5</v>
@@ -962,19 +962,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="10">
         <v>25</v>
@@ -983,17 +983,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" s="10">
         <v>15</v>
@@ -1002,33 +1002,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
       <c r="D20" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="5">
         <f t="shared" si="0"/>
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="10">
         <v>6</v>
@@ -1037,19 +1037,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="5">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" s="10">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
@@ -1066,7 +1066,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
@@ -1074,7 +1074,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
